--- a/StructureDefinition-ext-R5-Invoice.lineItem.xlsx
+++ b/StructureDefinition-ext-R5-Invoice.lineItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,7 +482,7 @@
     <t>Extension.extension:chargeItem.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItem|0.0.1-snapshot-3|ChargeItem|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItem|ChargeItem)
 CodeableConcept</t>
   </si>
   <si>
